--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,109 +49,115 @@
     <t>thin</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>probably</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>though</t>
   </si>
   <si>
     <t>sound</t>
@@ -160,79 +166,82 @@
     <t>minutes</t>
   </si>
   <si>
-    <t>though</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>back</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
@@ -241,30 +250,27 @@
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -283,61 +289,67 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoys</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>play</t>
@@ -701,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,13 +782,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -820,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -891,16 +903,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>0.828125</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1012,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
-        <v>0.8064516129032258</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1082,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6881720430107527</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1132,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.640625</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>0.6226415094339622</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65625</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>0.5380200860832137</v>
+        <v>0.5423242467718795</v>
       </c>
       <c r="L11">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M11">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,38 +1232,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6545454545454545</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="L12">
         <v>36</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>36</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12">
-        <v>0.5362318840579711</v>
-      </c>
-      <c r="L12">
-        <v>37</v>
-      </c>
-      <c r="M12">
-        <v>37</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1282,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6351351351351351</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C13">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>0.4979253112033195</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L13">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M13">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6067961165048543</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>0.4467213114754098</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L14">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M14">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>0.3669724770642202</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>207</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16">
-        <v>0.3584905660377358</v>
+        <v>0.35</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5546218487394958</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C17">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>0.3333333333333333</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L17">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M17">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K18">
-        <v>0.3192771084337349</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L18">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4811594202898551</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C19">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19">
-        <v>0.3191489361702128</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20">
-        <v>0.3166666666666667</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,13 +1682,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4210526315789473</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1688,19 +1700,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K21">
-        <v>0.2459016393442623</v>
+        <v>0.203125</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1712,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1720,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4015748031496063</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,31 +1750,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22">
-        <v>0.234375</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3947368421052632</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K23">
-        <v>0.2167832167832168</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1832,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3877551020408163</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0.2043010752688172</v>
+        <v>0.192</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3855421686746988</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K25">
-        <v>0.1967871485943775</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1932,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3833333333333334</v>
+        <v>0.421875</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,16 +1953,16 @@
         <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K26">
-        <v>0.192</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +1982,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3818181818181818</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K27">
-        <v>0.1839080459770115</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2032,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3809523809523809</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K28">
-        <v>0.1746031746031746</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2062,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>104</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2082,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3744075829383886</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,31 +2100,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29">
-        <v>0.1473684210526316</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L29">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>972</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2141,16 +2153,16 @@
         <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K30">
-        <v>0.1042780748663102</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2162,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2182,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3518518518518519</v>
+        <v>0.3515625</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,31 +2200,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K31">
-        <v>0.09727626459143969</v>
+        <v>0.08382066276803118</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>232</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2232,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3488372093023256</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,31 +2250,31 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32">
+        <v>0.07799442896935933</v>
+      </c>
+      <c r="L32">
         <v>28</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32">
-        <v>0.08506493506493507</v>
-      </c>
-      <c r="L32">
-        <v>131</v>
-      </c>
       <c r="M32">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1409</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,13 +2282,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3359375</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2288,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K33">
-        <v>0.07799442896935933</v>
+        <v>0.06614785992217899</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2312,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>331</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,13 +2332,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.328125</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2338,31 +2350,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K34">
-        <v>0.036</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>723</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,13 +2382,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3258426966292135</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,7 +2400,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35">
+        <v>0.03836317135549872</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>0.75</v>
+      </c>
+      <c r="O35">
+        <v>0.25</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2396,13 +2432,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2920792079207921</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2414,7 +2450,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>143</v>
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36">
+        <v>0.02929427430093209</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>0.96</v>
+      </c>
+      <c r="O36">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2422,13 +2482,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2758620689655172</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2440,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2448,13 +2508,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2698412698412698</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2466,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2474,13 +2534,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2525773195876289</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2492,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2526,13 +2586,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2173913043478261</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2544,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2552,13 +2612,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2162162162162162</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2570,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2578,25 +2638,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1794871794871795</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2604,13 +2664,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1759259259259259</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2622,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2630,13 +2690,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1752577319587629</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2648,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2656,13 +2716,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1666666666666667</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2674,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2682,13 +2742,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1648351648351648</v>
+        <v>0.17</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2700,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2708,25 +2768,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1642651296829971</v>
+        <v>0.1661721068249258</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>290</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2734,13 +2794,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1613924050632911</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C49">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2752,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>265</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2760,25 +2820,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1454005934718101</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C50">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>576</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2786,25 +2846,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1367521367521368</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2812,13 +2872,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1360759493670886</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C52">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2830,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2838,13 +2898,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.13</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2856,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2864,25 +2924,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1278195488721804</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2890,13 +2950,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1273885350318471</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2908,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2916,13 +2976,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.125</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2934,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2942,13 +3002,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1168224299065421</v>
+        <v>0.12</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2960,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2968,25 +3028,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1101321585903084</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>404</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3020,7 +3080,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09947643979057591</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -3038,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3046,13 +3106,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09142857142857143</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3064,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>159</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3072,25 +3132,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.08196721311475409</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3098,13 +3158,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07349665924276169</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="C63">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3116,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>416</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3124,25 +3184,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.07168458781362007</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>259</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3150,25 +3210,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06260296540362438</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C65">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>569</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3176,13 +3236,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05633802816901409</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3194,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3202,13 +3262,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05205479452054795</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3220,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>346</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3228,25 +3288,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04895104895104895</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="F68">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>408</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3254,13 +3314,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.03828483920367534</v>
+        <v>0.0462046204620462</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E69">
         <v>0.07000000000000001</v>
@@ -3272,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>628</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3280,25 +3340,77 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.03698979591836735</v>
+        <v>0.04331210191082802</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E70">
+        <v>0.21</v>
+      </c>
+      <c r="F70">
+        <v>0.79</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.0397196261682243</v>
+      </c>
+      <c r="C71">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>23</v>
+      </c>
+      <c r="E71">
         <v>0.26</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>0.74</v>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>755</v>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.02909647779479326</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>0.1</v>
+      </c>
+      <c r="F72">
+        <v>0.9</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
